--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/116.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/116.xlsx
@@ -479,13 +479,13 @@
         <v>0.05198541913448693</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.279208498480823</v>
+        <v>-1.313910921505541</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1243444915982542</v>
+        <v>0.1192372433762556</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08643142282162802</v>
+        <v>0.0971861370592615</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.06216421918638918</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.261222166048919</v>
+        <v>-1.322992420630994</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03226071855273348</v>
+        <v>0.03701025499245948</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1171741954238016</v>
+        <v>0.1269346169115262</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06184719714938533</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.268842157035372</v>
+        <v>-1.34847025981735</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03118567123770403</v>
+        <v>-0.01180937302325469</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08978077314217257</v>
+        <v>0.07764777350672129</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.04733543714982269</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.324829161129357</v>
+        <v>-1.429238660158329</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03710178610206608</v>
+        <v>-0.03941304222997455</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1058865636329864</v>
+        <v>0.1153082539636203</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.02147801595019271</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.369943187090344</v>
+        <v>-1.48917217424204</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01513098243007198</v>
+        <v>-0.01404616669852681</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1072341880208952</v>
+        <v>0.1171712753276198</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.01095005686618998</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.205569512967752</v>
+        <v>-1.27677605836137</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1277975053332533</v>
+        <v>0.1431250901916128</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04183133378864</v>
+        <v>0.05255830711254621</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.04081080910877512</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8955516616327447</v>
+        <v>-0.9593324024360003</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2284926420189535</v>
+        <v>0.2050223689575962</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003474410392377573</v>
+        <v>0.01618120892755598</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.05544393792168239</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5089966293242121</v>
+        <v>-0.5707172422711955</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3078871371063868</v>
+        <v>0.2992246717830254</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07009887295660268</v>
+        <v>-0.05409820592833424</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03330572795800844</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08198950460896312</v>
+        <v>-0.144613887324219</v>
       </c>
       <c r="F10" t="n">
-        <v>0.313528762929658</v>
+        <v>0.2855177403055746</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05622111585251549</v>
+        <v>-0.03450144045215769</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.04519846033770823</v>
       </c>
       <c r="E11" t="n">
-        <v>0.603022718250762</v>
+        <v>0.5374811594498705</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1547368526586097</v>
+        <v>0.1094344804938946</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1116898028742279</v>
+        <v>-0.1014709262859579</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1938563861342306</v>
       </c>
       <c r="E12" t="n">
-        <v>1.390953731038641</v>
+        <v>1.340960224357837</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1837022948140267</v>
+        <v>-0.2439307386121015</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.008192833902073839</v>
+        <v>0.02467576872046279</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4130822891320002</v>
       </c>
       <c r="E13" t="n">
-        <v>2.060733272165916</v>
+        <v>1.975336519376757</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6425005066607217</v>
+        <v>-0.691269032993254</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1241911865487088</v>
+        <v>0.1561720799319729</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6813529846816309</v>
       </c>
       <c r="E14" t="n">
-        <v>2.772420573646543</v>
+        <v>2.679345427947295</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.241822507065015</v>
+        <v>-1.356957519369803</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2080037871592317</v>
+        <v>0.2131796576415031</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9709580898237637</v>
       </c>
       <c r="E15" t="n">
-        <v>3.45939656118854</v>
+        <v>3.364347430470384</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.820817717947678</v>
+        <v>-1.925107493033196</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3783183969637315</v>
+        <v>0.402201863634816</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.257206669389077</v>
       </c>
       <c r="E16" t="n">
-        <v>4.060343595118016</v>
+        <v>3.979668637854855</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.486925238126317</v>
+        <v>-2.586153026480654</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5927191588732194</v>
+        <v>0.6482652284437499</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.530405274262814</v>
       </c>
       <c r="E17" t="n">
-        <v>4.644190545806768</v>
+        <v>4.573108104500878</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.108340686242241</v>
+        <v>-3.165552670684499</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7930275366092565</v>
+        <v>0.8426779319886977</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.782968544594749</v>
       </c>
       <c r="E18" t="n">
-        <v>5.205593637242072</v>
+        <v>5.135736176284454</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.789724689596059</v>
+        <v>-3.814596608824688</v>
       </c>
       <c r="G18" t="n">
-        <v>1.052961358281823</v>
+        <v>1.124198564685349</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.008945449918484</v>
       </c>
       <c r="E19" t="n">
-        <v>5.719149492690207</v>
+        <v>5.639391445628137</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.400303660781258</v>
+        <v>-4.38840134874417</v>
       </c>
       <c r="G19" t="n">
-        <v>1.284446142903034</v>
+        <v>1.358177111445832</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.201285305182984</v>
       </c>
       <c r="E20" t="n">
-        <v>6.072722038625112</v>
+        <v>5.967033537468503</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.916834364214619</v>
+        <v>-4.856337271567818</v>
       </c>
       <c r="G20" t="n">
-        <v>1.494323675826886</v>
+        <v>1.576712729548773</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.353253760318488</v>
       </c>
       <c r="E21" t="n">
-        <v>6.444383120358284</v>
+        <v>6.373992741847485</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.305881698614333</v>
+        <v>-5.215058677095312</v>
       </c>
       <c r="G21" t="n">
-        <v>1.70786592945892</v>
+        <v>1.777999339505719</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.463879937102507</v>
       </c>
       <c r="E22" t="n">
-        <v>6.774302887220468</v>
+        <v>6.726422070127208</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.498788362553508</v>
+        <v>-5.384949142929403</v>
       </c>
       <c r="G22" t="n">
-        <v>1.781088801266082</v>
+        <v>1.855228583274335</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.53301722290427</v>
       </c>
       <c r="E23" t="n">
-        <v>6.91319142191625</v>
+        <v>6.815349219200185</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.727775004891174</v>
+        <v>-5.64248994578097</v>
       </c>
       <c r="G23" t="n">
-        <v>1.922041843962408</v>
+        <v>1.995394660049661</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.565074006282341</v>
       </c>
       <c r="E24" t="n">
-        <v>7.101333218910744</v>
+        <v>7.039920676110943</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.677591691958551</v>
+        <v>-5.597199254000982</v>
       </c>
       <c r="G24" t="n">
-        <v>1.986904480401027</v>
+        <v>2.067696241511459</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.563305818709244</v>
       </c>
       <c r="E25" t="n">
-        <v>7.129969142117737</v>
+        <v>7.049085397977577</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.628031819560746</v>
+        <v>-5.597002877532755</v>
       </c>
       <c r="G25" t="n">
-        <v>1.971722900351758</v>
+        <v>2.046216013998011</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.533027676740928</v>
       </c>
       <c r="E26" t="n">
-        <v>7.11321509027456</v>
+        <v>7.018843421870585</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.504348225683689</v>
+        <v>-5.470367066415879</v>
       </c>
       <c r="G26" t="n">
-        <v>1.901741335306413</v>
+        <v>1.96884952570885</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.478296222898595</v>
       </c>
       <c r="E27" t="n">
-        <v>6.992666219648683</v>
+        <v>6.900448122178799</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.42381270301321</v>
+        <v>-5.404659062132625</v>
       </c>
       <c r="G27" t="n">
-        <v>1.877183326417329</v>
+        <v>1.955728073515853</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.403697728319848</v>
       </c>
       <c r="E28" t="n">
-        <v>6.942536928495423</v>
+        <v>6.847083364456085</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.236576865859124</v>
+        <v>-5.23140318544899</v>
       </c>
       <c r="G28" t="n">
-        <v>1.821812462617707</v>
+        <v>1.886393309774781</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.311888638368784</v>
       </c>
       <c r="E29" t="n">
-        <v>6.761248597239654</v>
+        <v>6.662327418984408</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.118230477778384</v>
+        <v>-5.132668163325334</v>
       </c>
       <c r="G29" t="n">
-        <v>1.774638308800447</v>
+        <v>1.849068640378791</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.207670850405629</v>
       </c>
       <c r="E30" t="n">
-        <v>6.672928828172496</v>
+        <v>6.583130030389247</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.057511457821763</v>
+        <v>-5.106831882332659</v>
       </c>
       <c r="G30" t="n">
-        <v>1.73609741934473</v>
+        <v>1.828492182633615</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.094721211177947</v>
       </c>
       <c r="E31" t="n">
-        <v>6.458095892028099</v>
+        <v>6.370250638590486</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.879376100418312</v>
+        <v>-4.944799395323839</v>
       </c>
       <c r="G31" t="n">
-        <v>1.6140797403394</v>
+        <v>1.699343628752286</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.97746225108414</v>
       </c>
       <c r="E32" t="n">
-        <v>6.201121587835805</v>
+        <v>6.096587984719105</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.680113847139411</v>
+        <v>-4.73758718018994</v>
       </c>
       <c r="G32" t="n">
-        <v>1.491028347285705</v>
+        <v>1.582888732973317</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.858635379702429</v>
       </c>
       <c r="E33" t="n">
-        <v>5.963088487526869</v>
+        <v>5.858172351810351</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.480245673902782</v>
+        <v>-4.551059466359945</v>
       </c>
       <c r="G33" t="n">
-        <v>1.477203151912891</v>
+        <v>1.559325016834142</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.739324816517318</v>
       </c>
       <c r="E34" t="n">
-        <v>5.619323084618597</v>
+        <v>5.499415175104629</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.348693880863817</v>
+        <v>-4.42433532233357</v>
       </c>
       <c r="G34" t="n">
-        <v>1.397992622884912</v>
+        <v>1.478861766544163</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.620589431407664</v>
       </c>
       <c r="E35" t="n">
-        <v>5.331090610848038</v>
+        <v>5.226161334698703</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.234824730253848</v>
+        <v>-4.318353351510689</v>
       </c>
       <c r="G35" t="n">
-        <v>1.364929833866285</v>
+        <v>1.464772302466894</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.499760835294288</v>
       </c>
       <c r="E36" t="n">
-        <v>5.019071033580395</v>
+        <v>4.905876425188425</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.143856433949781</v>
+        <v>-4.208810323394082</v>
       </c>
       <c r="G36" t="n">
-        <v>1.28116249474658</v>
+        <v>1.366308119264102</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.378534144758761</v>
       </c>
       <c r="E37" t="n">
-        <v>4.647588077714312</v>
+        <v>4.526072655252254</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.081104297026571</v>
+        <v>-4.158547437840505</v>
       </c>
       <c r="G37" t="n">
-        <v>1.19073441623615</v>
+        <v>1.251600901049952</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.256130401259253</v>
       </c>
       <c r="E38" t="n">
-        <v>4.340183712462031</v>
+        <v>4.245178383186603</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.985958803134415</v>
+        <v>-4.034284934895402</v>
       </c>
       <c r="G38" t="n">
-        <v>1.158007438278431</v>
+        <v>1.215292425125234</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.136534040740356</v>
       </c>
       <c r="E39" t="n">
-        <v>3.975196510552402</v>
+        <v>3.846056716959619</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.844616657621862</v>
+        <v>-3.893656752899303</v>
       </c>
       <c r="G39" t="n">
-        <v>1.080651170325907</v>
+        <v>1.134874436326074</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.02067099561873</v>
       </c>
       <c r="E40" t="n">
-        <v>3.653825325262488</v>
+        <v>3.520800343699797</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.743295890329207</v>
+        <v>-3.808458566650508</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9956559307617475</v>
+        <v>1.050730404798915</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9114433847063919</v>
       </c>
       <c r="E41" t="n">
-        <v>3.430861381299821</v>
+        <v>3.293552618638403</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.718071369486623</v>
+        <v>-3.778891862785561</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9138654967571331</v>
+        <v>0.9529641245835772</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8108516580275392</v>
       </c>
       <c r="E42" t="n">
-        <v>3.112378171133725</v>
+        <v>2.954273943513494</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.651221607596277</v>
+        <v>-3.676273112740089</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8599590611926931</v>
+        <v>0.8929955693456841</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7189950710434353</v>
       </c>
       <c r="E43" t="n">
-        <v>2.951207842522586</v>
+        <v>2.803046542401444</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.581342975941342</v>
+        <v>-3.61021396689097</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8409769759627891</v>
+        <v>0.8553613697544216</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6358159717064839</v>
       </c>
       <c r="E44" t="n">
-        <v>2.710580236756105</v>
+        <v>2.575248379209778</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.551593766065031</v>
+        <v>-3.603386782017881</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7543610830177214</v>
+        <v>0.7582681717089931</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5591810040886426</v>
       </c>
       <c r="E45" t="n">
-        <v>2.514522059012703</v>
+        <v>2.367765325155015</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.440421324278971</v>
+        <v>-3.476177172001279</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6529373823346577</v>
+        <v>0.6728684988236524</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4884941236309416</v>
       </c>
       <c r="E46" t="n">
-        <v>2.300696556051034</v>
+        <v>2.137293813908896</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.36498501956599</v>
+        <v>-3.407213990499343</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6651594449036544</v>
+        <v>0.6929091189194652</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4216278988229577</v>
       </c>
       <c r="E47" t="n">
-        <v>2.01589519529411</v>
+        <v>1.819929000580435</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.310831105850141</v>
+        <v>-3.365077002595718</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5648249400964087</v>
+        <v>0.5792896365330411</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3590178530016356</v>
       </c>
       <c r="E48" t="n">
-        <v>1.817778349742527</v>
+        <v>1.636570321131757</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.216331683238213</v>
+        <v>-3.256448694608065</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4613323512685273</v>
+        <v>0.4889345604271563</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2999727361600816</v>
       </c>
       <c r="E49" t="n">
-        <v>1.660478608620387</v>
+        <v>1.446676466428172</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.151740615744502</v>
+        <v>-3.194943438754491</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3881897821063652</v>
+        <v>0.4012688929047253</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.244883020428183</v>
       </c>
       <c r="E50" t="n">
-        <v>1.518255324084971</v>
+        <v>1.321919737204296</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.090971224128746</v>
+        <v>-3.137370092409733</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2973485099862078</v>
+        <v>0.2947437841920266</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1945932344942006</v>
       </c>
       <c r="E51" t="n">
-        <v>1.387537218505915</v>
+        <v>1.194185969923058</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.999703617966043</v>
+        <v>-3.052915800663256</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2674160640744885</v>
+        <v>0.2853775756888473</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.148651643343885</v>
       </c>
       <c r="E52" t="n">
-        <v>1.22584273263014</v>
+        <v>1.04635318062237</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.88421308395112</v>
+        <v>-2.923164246920382</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2367331534440422</v>
+        <v>0.2311178084864074</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1076293808307637</v>
       </c>
       <c r="E53" t="n">
-        <v>1.048451269729006</v>
+        <v>0.8737740362288712</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.77315452591615</v>
+        <v>-2.831246919357225</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1525993422535193</v>
+        <v>0.1504005098286108</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.07109384857207908</v>
       </c>
       <c r="E54" t="n">
-        <v>1.00865911905938</v>
+        <v>0.8832001067037777</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.718335560294892</v>
+        <v>-2.768101299473515</v>
       </c>
       <c r="G54" t="n">
-        <v>0.120478284253528</v>
+        <v>0.09500774530762572</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.03828222073559344</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8392774799849714</v>
+        <v>0.6832494407500133</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.751843663981246</v>
+        <v>-2.798627254934188</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08843606885044566</v>
+        <v>0.07398159275044955</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.008202207923610556</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7190030984001854</v>
+        <v>0.5463436513616864</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.653786834195818</v>
+        <v>-2.695937692556307</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07620962613717622</v>
+        <v>0.06576006195054267</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.0199664455187299</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6346634204288445</v>
+        <v>0.4707292207816157</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.640701883205094</v>
+        <v>-2.685264010987719</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03434858732273292</v>
+        <v>0.02810834178218914</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.0461799210147131</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6080511238758516</v>
+        <v>0.45140694434653</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.664905100408088</v>
+        <v>-2.702441476777259</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01173053042634562</v>
+        <v>-0.03559355642415739</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.07113882947718318</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5717645486724977</v>
+        <v>0.3795754983700039</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.632583285795596</v>
+        <v>-2.67225206240154</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.03185145316715839</v>
+        <v>-0.05482676992569768</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.09474006482987331</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5452237944759594</v>
+        <v>0.3929290982094548</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.633319150033414</v>
+        <v>-2.66972909930045</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08426425953459887</v>
+        <v>-0.1187578956823169</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1166701969205755</v>
       </c>
       <c r="E61" t="n">
-        <v>0.406855036900542</v>
+        <v>0.2402971308339504</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.674800576344222</v>
+        <v>-2.72660673272989</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1097625393942284</v>
+        <v>-0.1551437541558526</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1360464398804884</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3760144410762775</v>
+        <v>0.208335218075868</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.679169770256266</v>
+        <v>-2.692865751373035</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1481194627904908</v>
+        <v>-0.1983246764444773</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1526040286174057</v>
       </c>
       <c r="E63" t="n">
-        <v>0.308250689081023</v>
+        <v>0.11964605684171</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.769855547254741</v>
+        <v>-2.826825163713908</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2104255550219286</v>
+        <v>-0.2524866204248264</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1669025196722468</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2578688096080365</v>
+        <v>0.05429576434072756</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.768000556155242</v>
+        <v>-2.824513177561954</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2147429172267457</v>
+        <v>-0.2663176559900045</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1795365831712065</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1980258185059617</v>
+        <v>-0.00252638726125718</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.754470290496791</v>
+        <v>-2.79483843013828</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2536823998112807</v>
+        <v>-0.3023093014789949</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1912977133527864</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1512049963267015</v>
+        <v>-0.06087428911824151</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.851538667724674</v>
+        <v>-2.902871768528887</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2585940015890975</v>
+        <v>-0.3027560761948129</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2025381611758523</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1222799835977093</v>
+        <v>-0.1115934397002279</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.849528911527538</v>
+        <v>-2.905580887761569</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2635026832707326</v>
+        <v>-0.3156877221359913</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2135375275708024</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09931634722389729</v>
+        <v>-0.1256274219500423</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.945450420980012</v>
+        <v>-2.997336149986635</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3363123614681676</v>
+        <v>-0.3897632620282441</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2243312060519601</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0521874548974554</v>
+        <v>-0.1534033768314894</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.956346759882464</v>
+        <v>-3.024506184910355</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2985832587509958</v>
+        <v>-0.3494192131802549</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2354113546748735</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.04249666379797372</v>
+        <v>-0.2682565998547313</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.067408238013616</v>
+        <v>-3.138959354756688</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.359270157649616</v>
+        <v>-0.4198942744803269</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2456457959851355</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.07990309588705459</v>
+        <v>-0.3083977020180841</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.160587047127318</v>
+        <v>-3.241575184705978</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4276777908529612</v>
+        <v>-0.4995880794263964</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.255274991816938</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.09846030712250414</v>
+        <v>-0.3305013700663509</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.279315237783832</v>
+        <v>-3.364595916749764</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4517817247857729</v>
+        <v>-0.5122817375287566</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2631675926762582</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.127167772685951</v>
+        <v>-0.3419204061853479</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.21578124510794</v>
+        <v>-3.316477111817686</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4863293827128545</v>
+        <v>-0.5589215137447442</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2691564822036741</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.1762502093580287</v>
+        <v>-0.4020860679155135</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.283420162991422</v>
+        <v>-3.387825281876121</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5417747089651124</v>
+        <v>-0.6183367107561827</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2730857836162698</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.1347541825663126</v>
+        <v>-0.3443893475070745</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.29018967596492</v>
+        <v>-3.3975046706948</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5831203508034649</v>
+        <v>-0.6497321248549924</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2746728794538882</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1738367498637566</v>
+        <v>-0.4041651763969675</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.212282969882123</v>
+        <v>-3.290081632406193</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6045392562970955</v>
+        <v>-0.6682674353690784</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2750023106879115</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.1566738845551249</v>
+        <v>-0.3868665266158812</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.217756690174939</v>
+        <v>-3.290624770296011</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5854856287107371</v>
+        <v>-0.6176855293076374</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2739803439624619</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.05822576188133313</v>
+        <v>-0.2548299976107349</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.148273001528594</v>
+        <v>-3.209349003243442</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6118248962707299</v>
+        <v>-0.656168016839718</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2727025017130679</v>
       </c>
       <c r="E79" t="n">
-        <v>0.005813407434013308</v>
+        <v>-0.1898052958340251</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.065750353406389</v>
+        <v>-3.152158189498502</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5770845119956484</v>
+        <v>-0.6077250812314583</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2715906265286087</v>
       </c>
       <c r="E80" t="n">
-        <v>0.09503694626944389</v>
+        <v>-0.08556808247978033</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.003986669040724</v>
+        <v>-3.074625255726978</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6270020961757259</v>
+        <v>-0.6396242119216315</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2706994409634857</v>
       </c>
       <c r="E81" t="n">
-        <v>0.185578908530965</v>
+        <v>0.002795488030105027</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.890494940862254</v>
+        <v>-2.957979823672146</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5586806058097442</v>
+        <v>-0.5763471877097395</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.270024726876198</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2720429564745782</v>
+        <v>0.1370016484983417</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.731119741378888</v>
+        <v>-2.799484303163552</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5592850657193804</v>
+        <v>-0.5691973322085596</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2695271269982025</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5530116909928664</v>
+        <v>0.4250647566903553</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.642495552284776</v>
+        <v>-2.713781670299347</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5332334276332965</v>
+        <v>-0.5549545630817452</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2686127759544765</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8132521227645237</v>
+        <v>0.6988602749380091</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.460333382246597</v>
+        <v>-2.552474097167663</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5299556196692065</v>
+        <v>-0.5408417382350217</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2670293697658588</v>
       </c>
       <c r="E85" t="n">
-        <v>1.017806320348923</v>
+        <v>0.9022697948191363</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.235942971299112</v>
+        <v>-2.324128415941907</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5254586715492077</v>
+        <v>-0.5443429335570208</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2640145772877987</v>
       </c>
       <c r="E86" t="n">
-        <v>1.33916582525411</v>
+        <v>1.238710136455319</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.127162088285959</v>
+        <v>-2.227256415182251</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4664143267528599</v>
+        <v>-0.4738678722569488</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2586969323335842</v>
       </c>
       <c r="E87" t="n">
-        <v>1.63737772772603</v>
+        <v>1.542105209649964</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.959647120695777</v>
+        <v>-2.055385394112842</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4396706258716853</v>
+        <v>-0.4492981829831372</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2520279148045115</v>
       </c>
       <c r="E88" t="n">
-        <v>1.840689424385066</v>
+        <v>1.722145199788007</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.715092715588797</v>
+        <v>-1.791207212640004</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4427469471992299</v>
+        <v>-0.4475227645045922</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2452803227151317</v>
       </c>
       <c r="E89" t="n">
-        <v>2.046296316643011</v>
+        <v>1.951238425636309</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.573282624663108</v>
+        <v>-1.639327900055363</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.3536066311049811</v>
+        <v>-0.3471517584950737</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2400749107411889</v>
       </c>
       <c r="E90" t="n">
-        <v>2.169569637006523</v>
+        <v>2.086647665731455</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.38752946634534</v>
+        <v>-1.44207832306978</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3140977297649917</v>
+        <v>-0.3179215957150816</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2395511966977092</v>
       </c>
       <c r="E91" t="n">
-        <v>2.223852764978418</v>
+        <v>2.163460795794161</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.197349442215936</v>
+        <v>-1.242951124239288</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2966895763770873</v>
+        <v>-0.3043694293352671</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2465993082952706</v>
       </c>
       <c r="E92" t="n">
-        <v>2.138074939637532</v>
+        <v>2.09565470240427</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.046539614857886</v>
+        <v>-1.088494096750147</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2723753955191847</v>
+        <v>-0.2926598436461793</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2637606981165097</v>
       </c>
       <c r="E93" t="n">
-        <v>2.062899983532825</v>
+        <v>2.042773220599648</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.8501193451879386</v>
+        <v>-0.859996570522936</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2493153959713727</v>
+        <v>-0.2883585419703623</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2915015968161099</v>
       </c>
       <c r="E94" t="n">
-        <v>1.929036934365951</v>
+        <v>1.929353764801679</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8022852496335879</v>
+        <v>-0.8071545100167684</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.2026230580241125</v>
+        <v>-0.2497519503505544</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3286579339904422</v>
       </c>
       <c r="E95" t="n">
-        <v>1.830599032028796</v>
+        <v>1.8511711096297</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6011504846780964</v>
+        <v>-0.6033069757083686</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1756720303140289</v>
+        <v>-0.2065754082062024</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3700751658365969</v>
       </c>
       <c r="E96" t="n">
-        <v>1.677549490899292</v>
+        <v>1.698489500619104</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4548127846224994</v>
+        <v>-0.431022761029233</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1453541317063097</v>
+        <v>-0.1722569778293934</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4107722822073488</v>
       </c>
       <c r="E97" t="n">
-        <v>1.537046143014966</v>
+        <v>1.557237148064142</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.3009441565139953</v>
+        <v>-0.2680682536510041</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.136986596097312</v>
+        <v>-0.182881747786936</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4460667194865529</v>
       </c>
       <c r="E98" t="n">
-        <v>1.385783700748734</v>
+        <v>1.415425597090362</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1637142364494866</v>
+        <v>-0.1269560657127692</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.144662068911219</v>
+        <v>-0.1695865498711214</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4742868575337505</v>
       </c>
       <c r="E99" t="n">
-        <v>1.256359197778223</v>
+        <v>1.288156125102033</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.01356289078043603</v>
+        <v>0.02973337530737052</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1966047397933869</v>
+        <v>-0.238484759233012</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4939042231071837</v>
       </c>
       <c r="E100" t="n">
-        <v>1.218822821409051</v>
+        <v>1.2405278963285</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07599061892353992</v>
+        <v>0.1163959897913473</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2095466060712016</v>
+        <v>-0.2549584818427348</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.50637140543735</v>
       </c>
       <c r="E101" t="n">
-        <v>1.122220199522168</v>
+        <v>1.132684364189711</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1197205192943464</v>
+        <v>0.160744950552699</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1688638260661216</v>
+        <v>-0.1891292935679343</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5104527577745314</v>
       </c>
       <c r="E102" t="n">
-        <v>1.095714486479812</v>
+        <v>1.101780986297537</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1354116561273422</v>
+        <v>0.1550390826134278</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2467223505619189</v>
+        <v>-0.2798464616003645</v>
       </c>
     </row>
   </sheetData>
